--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/plasticb_bad.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/plasticb_bad.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>arg219292</t>
@@ -42,7 +42,7 @@
     <t>arg219227</t>
   </si>
   <si>
-    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
+    <t>14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
   </si>
   <si>
     <t>arg219307</t>
@@ -51,7 +51,7 @@
     <t>arg219274</t>
   </si>
   <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
   </si>
   <si>
     <t>arg219256</t>
@@ -63,19 +63,19 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
   </si>
   <si>
     <t>arg219210</t>
   </si>
   <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
   </si>
   <si>
     <t>arg219461</t>
   </si>
   <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>arg219212</t>
@@ -84,7 +84,7 @@
     <t>arg219313</t>
   </si>
   <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
   </si>
   <si>
     <t>arg219254</t>
@@ -93,16 +93,16 @@
     <t>arg219255</t>
   </si>
   <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
   </si>
   <si>
     <t>arg219204</t>
   </si>
   <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>arg219269</t>
@@ -111,16 +111,16 @@
     <t>arg219285</t>
   </si>
   <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
   </si>
   <si>
     <t>arg219288</t>
   </si>
   <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
   </si>
   <si>
     <t>arg219270</t>
@@ -129,1201 +129,1201 @@
     <t>arg219239</t>
   </si>
   <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>arg219295</t>
   </si>
   <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
   </si>
   <si>
     <t>arg219213</t>
   </si>
   <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>arg219232</t>
   </si>
   <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>arg219241</t>
   </si>
   <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
   </si>
   <si>
     <t>arg219282</t>
   </si>
   <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg219262</t>
   </si>
   <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
   </si>
   <si>
     <t>arg219246</t>
   </si>
   <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
   </si>
   <si>
     <t>arg219278</t>
   </si>
   <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
   </si>
   <si>
     <t>arg219233</t>
   </si>
   <si>
-    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
+    <t>14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
   </si>
   <si>
     <t>arg219218</t>
   </si>
   <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
   </si>
   <si>
     <t>arg219275</t>
   </si>
   <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
   </si>
   <si>
     <t>arg219261</t>
   </si>
   <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.05,0.0,0.0,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.4,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0</t>
-  </si>
-  <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,0.0,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25,66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.05,0.13,0.25</t>
-  </si>
-  <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.3,0.3,0.19,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0,147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.45,0.5,0.5,0.13,0.0,303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.13,0.0,280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.05,0.05,0.05,0.0,0.0,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0,350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.3,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.15,0.15,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.35,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.15,0.2,0.25,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.15,0.05,0.1,0.0,0.0,98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.05,0.15,0.06,0.25,91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.4,0.06,0.0,301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
+  </si>
+  <si>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63,16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
+  </si>
+  <si>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
+  </si>
+  <si>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1,24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78,24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
+  </si>
+  <si>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45,28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
+  </si>
+  <si>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48,16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
+  </si>
+  <si>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71,13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
+  </si>
+  <si>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
+  </si>
+  <si>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55,18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
+  </si>
+  <si>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5,14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
+  </si>
+  <si>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69,15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
+  </si>
+  <si>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44,10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
   </si>
 </sst>
 </file>
